--- a/bin/sheets/main_db/teams/WIN/PlayerPerformance_3952.xlsx
+++ b/bin/sheets/main_db/teams/WIN/PlayerPerformance_3952.xlsx
@@ -7,8 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,6 +428,69 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_HAND</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>BOWL_STYLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3952</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Shannon Terry Gabriel</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Right Handed</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Right Arm Fast Medium</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -452,7 +517,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -492,7 +557,6 @@
           <t>1</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
           <t>21/06/2016</t>
@@ -500,7 +564,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3905</t>
+          <t>3905</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -552,7 +616,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3907</t>
+          <t>3907</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -604,7 +668,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3909</t>
+          <t>3909</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -656,7 +720,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3939</t>
+          <t>3939</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -708,7 +772,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3944</t>
+          <t>3944</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -760,7 +824,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3960</t>
+          <t>3960</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -800,7 +864,6 @@
           <t>7</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
           <t>19/11/2016</t>
@@ -808,7 +871,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3961</t>
+          <t>3961</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -860,7 +923,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3963</t>
+          <t>3963</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -912,7 +975,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4001</t>
+          <t>4001</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -964,7 +1027,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4004</t>
+          <t>4004</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1004,7 +1067,6 @@
           <t>11</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
           <t>07/04/2017</t>
@@ -1012,7 +1074,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4017</t>
+          <t>4017</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1064,7 +1126,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4018</t>
+          <t>4018</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1104,7 +1166,6 @@
           <t>13</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr">
         <is>
           <t>11/04/2017</t>
@@ -1112,7 +1173,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4019</t>
+          <t>4019</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1164,7 +1225,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4040</t>
+          <t>4040</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1204,7 +1265,6 @@
           <t>15</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
           <t>11/06/2017</t>
@@ -1212,7 +1272,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4043</t>
+          <t>4043</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1264,7 +1324,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4100</t>
+          <t>4100</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1316,7 +1376,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4101</t>
+          <t>4101</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1368,7 +1428,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4102</t>
+          <t>4102</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1408,7 +1468,6 @@
           <t>19</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr">
         <is>
           <t>05/05/2019</t>
@@ -1416,7 +1475,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4285</t>
+          <t>4285</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1468,7 +1527,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4286</t>
+          <t>4286</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1508,7 +1567,6 @@
           <t>21</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr">
         <is>
           <t>11/05/2019</t>
@@ -1516,7 +1574,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4291</t>
+          <t>4291</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1556,7 +1614,6 @@
           <t>22</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr">
         <is>
           <t>17/05/2019</t>
@@ -1564,7 +1621,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4296</t>
+          <t>4296</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1616,7 +1673,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4321</t>
+          <t>4321</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1656,7 +1713,6 @@
           <t>24</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr">
         <is>
           <t>17/06/2019</t>
@@ -1664,7 +1720,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4325</t>
+          <t>4325</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1716,7 +1772,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4344</t>
+          <t>4344</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1755,7 +1811,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1777,7 +1833,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -1814,7 +1870,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3905</t>
+          <t>3905</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -1851,7 +1907,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3907</t>
+          <t>3907</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -1888,7 +1944,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3909</t>
+          <t>3909</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -1925,7 +1981,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3939</t>
+          <t>3939</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1962,7 +2018,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3944</t>
+          <t>3944</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1999,7 +2055,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3960</t>
+          <t>3960</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -2036,7 +2092,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3961</t>
+          <t>3961</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -2073,7 +2129,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3963</t>
+          <t>3963</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -2110,7 +2166,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4001</t>
+          <t>4001</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -2147,7 +2203,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4004</t>
+          <t>4004</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -2184,7 +2240,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4017</t>
+          <t>4017</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -2221,7 +2277,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4018</t>
+          <t>4018</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -2258,7 +2314,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4019</t>
+          <t>4019</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -2295,7 +2351,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4040</t>
+          <t>4040</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -2332,7 +2388,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4043</t>
+          <t>4043</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -2369,7 +2425,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4100</t>
+          <t>4100</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -2406,7 +2462,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4101</t>
+          <t>4101</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -2443,7 +2499,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4102</t>
+          <t>4102</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -2480,7 +2536,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4285</t>
+          <t>4285</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -2517,7 +2573,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4286</t>
+          <t>4286</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -2554,7 +2610,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4291</t>
+          <t>4291</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -2591,7 +2647,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4296</t>
+          <t>4296</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -2628,7 +2684,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4321</t>
+          <t>4321</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -2665,7 +2721,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4325</t>
+          <t>4325</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -2702,7 +2758,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4344</t>
+          <t>4344</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -2730,6 +2786,411 @@
           <t>0/46</t>
         </is>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3960</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>11</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>3961</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3963</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>11</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0.44%</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4001</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>10</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4004</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4017</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>11</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4018</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4019</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>11</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4040</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>11</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4043</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4100</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>11</v>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4101</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4102</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4285</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4286</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4291</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4296</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4321</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4325</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4344</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin/sheets/main_db/teams/WIN/PlayerPerformance_3952.xlsx
+++ b/bin/sheets/main_db/teams/WIN/PlayerPerformance_3952.xlsx
@@ -11,6 +11,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2857,7 +2858,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2870,15 +2870,323 @@
           <t>3961</t>
         </is>
       </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3963</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>11</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0.44%</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4001</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>10</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4004</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4017</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>11</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4018</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4019</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>11</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4040</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>11</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4043</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>10</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4100</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>11</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4101</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4102</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4285</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4286</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4291</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4296</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4321</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4325</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4344</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>MAIDEN_OVERS</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_WICKETS_OF_ALL</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3960</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>30.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>3961</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2886,27 +3194,14 @@
           <t>3963</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>11</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0.44%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -2916,15 +3211,14 @@
           <t>4001</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>10</v>
-      </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>20.00%</t>
         </is>
       </c>
     </row>
@@ -2934,13 +3228,14 @@
           <t>4004</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -2950,25 +3245,12 @@
           <t>4017</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>11</v>
-      </c>
-      <c r="C7" t="inlineStr">
+      <c r="B7" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="C7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2976,13 +3258,14 @@
           <t>4018</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>20.00%</t>
         </is>
       </c>
     </row>
@@ -2992,17 +3275,8 @@
           <t>4019</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>11</v>
-      </c>
+      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3010,23 +3284,14 @@
           <t>4040</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>11</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -3036,15 +3301,14 @@
           <t>4043</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>10</v>
-      </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>20.00%</t>
         </is>
       </c>
     </row>
@@ -3054,17 +3318,12 @@
           <t>4100</t>
         </is>
       </c>
-      <c r="B12" t="n">
-        <v>11</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3072,25 +3331,12 @@
           <t>4101</t>
         </is>
       </c>
-      <c r="B13" t="n">
-        <v>11</v>
-      </c>
-      <c r="C13" t="inlineStr">
+      <c r="B13" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="C13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3100,13 +3346,6 @@
       </c>
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3114,11 +3353,16 @@
           <t>4285</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>30.00%</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3126,11 +3370,16 @@
           <t>4286</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -3138,11 +3387,16 @@
           <t>4291</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -3150,11 +3404,16 @@
           <t>4296</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -3162,11 +3421,16 @@
           <t>4321</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -3176,9 +3440,6 @@
       </c>
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3186,11 +3447,12 @@
           <t>4344</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr"/>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin/sheets/main_db/teams/WIN/PlayerPerformance_3952.xlsx
+++ b/bin/sheets/main_db/teams/WIN/PlayerPerformance_3952.xlsx
@@ -1,17 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -558,6 +556,7 @@
           <t>1</t>
         </is>
       </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
           <t>21/06/2016</t>
@@ -865,6 +864,7 @@
           <t>7</t>
         </is>
       </c>
+      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
           <t>19/11/2016</t>
@@ -1068,6 +1068,7 @@
           <t>11</t>
         </is>
       </c>
+      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
           <t>07/04/2017</t>
@@ -1167,6 +1168,7 @@
           <t>13</t>
         </is>
       </c>
+      <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr">
         <is>
           <t>11/04/2017</t>
@@ -1266,6 +1268,7 @@
           <t>15</t>
         </is>
       </c>
+      <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
           <t>11/06/2017</t>
@@ -1469,6 +1472,7 @@
           <t>19</t>
         </is>
       </c>
+      <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr">
         <is>
           <t>05/05/2019</t>
@@ -1568,6 +1572,7 @@
           <t>21</t>
         </is>
       </c>
+      <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr">
         <is>
           <t>11/05/2019</t>
@@ -1615,6 +1620,7 @@
           <t>22</t>
         </is>
       </c>
+      <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr">
         <is>
           <t>17/05/2019</t>
@@ -1714,6 +1720,7 @@
           <t>24</t>
         </is>
       </c>
+      <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr">
         <is>
           <t>17/06/2019</t>
@@ -2791,670 +2798,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>BATTING_POSITION</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_4</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_6</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_RUNS_OF_TOTAL</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>MAN_OF_MATCH</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>3960</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>11</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>3961</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>3963</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>11</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0.44%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4001</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>10</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4004</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4017</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>11</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4018</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4019</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>11</v>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4040</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>11</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4043</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>10</v>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4100</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>11</v>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4101</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>11</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4102</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4285</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4286</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4291</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4296</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4321</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4325</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4344</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>MAIDEN_OVERS</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_WICKETS_OF_ALL</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>3960</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>30.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>3961</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>3963</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4001</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4004</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4017</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4018</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4019</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4040</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4043</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4100</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4101</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4102</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4285</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>30.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4286</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4291</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4296</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4321</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4325</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4344</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>